--- a/public/documents/price-phone-plans-comparison.xlsx
+++ b/public/documents/price-phone-plans-comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Personal\Projects\phone-plans-price-comparison\phone-plans-price-comparison-client\public\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3F32D-10BA-479D-A340-F59E60714712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941BD53-7ED1-44FC-9B07-7ED2B84F2AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AF744759-1FDA-41F9-95E4-4AEE99F16433}"/>
+    <workbookView xWindow="-4170" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{AF744759-1FDA-41F9-95E4-4AEE99F16433}"/>
   </bookViews>
   <sheets>
     <sheet name="dashboard" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>code</t>
   </si>
@@ -130,9 +130,6 @@
     <t>planName</t>
   </si>
   <si>
-    <t>costPer Min</t>
-  </si>
-  <si>
     <t>totalCost</t>
   </si>
   <si>
@@ -154,16 +151,10 @@
     <t>planPremium</t>
   </si>
   <si>
-    <t>subscriptionFee</t>
-  </si>
-  <si>
     <t>planCallFee</t>
   </si>
   <si>
-    <t>planSubsFee</t>
-  </si>
-  <si>
-    <t>planTotalFee</t>
+    <t>costPerMin</t>
   </si>
 </sst>
 </file>
@@ -290,7 +281,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
@@ -299,24 +290,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -548,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{441CD974-216C-45CE-9E41-08ABB1BD6E2D}" name="dashboard" displayName="dashboard" ref="A1:N5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:N5" xr:uid="{441CD974-216C-45CE-9E41-08ABB1BD6E2D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{441CD974-216C-45CE-9E41-08ABB1BD6E2D}" name="dashboard" displayName="dashboard" ref="A1:L5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:L5" xr:uid="{441CD974-216C-45CE-9E41-08ABB1BD6E2D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -562,47 +535,39 @@
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
     <filterColumn colId="11" hiddenButton="1"/>
-    <filterColumn colId="12" hiddenButton="1"/>
-    <filterColumn colId="13" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{3C1F0E06-3978-46A4-867B-99715CC2BFBC}" name="from" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{CCB51DA3-8345-475F-8FAA-AFC3B9DCE1D6}" name="to" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{01B5D737-92AE-4E05-9EE8-7C38863719EA}" name="minutes" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{5C1376E7-C217-4E37-A413-C528116BD46F}" name="costPer Min" dataDxfId="26">
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3C1F0E06-3978-46A4-867B-99715CC2BFBC}" name="from" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{CCB51DA3-8345-475F-8FAA-AFC3B9DCE1D6}" name="to" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{01B5D737-92AE-4E05-9EE8-7C38863719EA}" name="minutes" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{5C1376E7-C217-4E37-A413-C528116BD46F}" name="costPerMin" dataDxfId="23">
       <calculatedColumnFormula array="1" xml:space="preserve"> IFERROR(_xlfn.XLOOKUP(
     dashboard[[#This Row],[from]] &amp; dashboard[[#This Row],[to]],
     price[from] &amp; price[to],
     price[feePerMin]
 ), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{47F8F2A1-3ACE-4DC0-8665-8F6CFB2D596D}" name="totalCost" dataDxfId="25">
-      <calculatedColumnFormula>IFERROR(dashboard[[#This Row],[costPer Min]]*dashboard[[#This Row],[minutes]], "")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{47F8F2A1-3ACE-4DC0-8665-8F6CFB2D596D}" name="totalCost" dataDxfId="22">
+      <calculatedColumnFormula>IFERROR(dashboard[[#This Row],[costPerMin]]*dashboard[[#This Row],[minutes]], "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{272A4A70-2060-456C-9167-CFA237D388A2}" name="planId" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{BBB8FFE4-3AE7-4A7C-99CA-414DB12972DD}" name="planName" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{272A4A70-2060-456C-9167-CFA237D388A2}" name="planId" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BBB8FFE4-3AE7-4A7C-99CA-414DB12972DD}" name="planName" dataDxfId="20">
       <calculatedColumnFormula>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[name_pt])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{99DCAFD9-CD60-4053-9B76-EA561A645513}" name="freeTime" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{99DCAFD9-CD60-4053-9B76-EA561A645513}" name="freeTime" dataDxfId="19">
       <calculatedColumnFormula>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[freeTime])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ACD13DF7-41DA-4464-82DB-496F2684A76D}" name="isOverFreeTime" dataDxfId="21">
+    <tableColumn id="9" xr3:uid="{ACD13DF7-41DA-4464-82DB-496F2684A76D}" name="isOverFreeTime" dataDxfId="18">
       <calculatedColumnFormula>IF(dashboard[[#This Row],[minutes]]&gt;dashboard[[#This Row],[freeTime]], 1, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B5F84CC5-4D8C-43DA-881B-F17081D3CFD9}" name="exceededFreeTime" dataDxfId="20">
+    <tableColumn id="10" xr3:uid="{B5F84CC5-4D8C-43DA-881B-F17081D3CFD9}" name="exceededFreeTime" dataDxfId="17">
       <calculatedColumnFormula>IF(dashboard[[#This Row],[isOverFreeTime]], dashboard[[#This Row],[minutes]]-dashboard[[#This Row],[freeTime]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{88E9E00C-7FF7-4D62-B503-339174B3F1CF}" name="planPremium" dataDxfId="19" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{88E9E00C-7FF7-4D62-B503-339174B3F1CF}" name="planPremium" dataDxfId="16" dataCellStyle="Percent">
       <calculatedColumnFormula>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[premium])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{D3F5FD8B-19D3-442E-9399-F1A8856C1293}" name="planCallFee" dataDxfId="2">
-      <calculatedColumnFormula>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPer Min]] * dashboard[[#This Row],[planPremium]], "")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{FD3E98CA-CA84-46A4-97AB-EFEC1C4E19C7}" name="planSubsFee" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[subscriptionFee])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{93F24FE8-6B9B-427A-9943-3C22BA31AA7B}" name="planTotalFee" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(dashboard[[#This Row],[planCallFee]]+dashboard[[#This Row],[planSubsFee]], "")</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{D3F5FD8B-19D3-442E-9399-F1A8856C1293}" name="planCallFee" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPerMin]] * (1 + dashboard[[#This Row],[planPremium]]), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -610,52 +575,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56D9F01A-5331-467F-A63A-3E49029B2471}" name="region" displayName="region" ref="A1:B5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56D9F01A-5331-467F-A63A-3E49029B2471}" name="region" displayName="region" ref="A1:B5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:B5" xr:uid="{56D9F01A-5331-467F-A63A-3E49029B2471}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{415D5D1C-D23E-4619-BFAB-DDD89D2C30AD}" name="code" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{6F3E31EC-6ECD-433E-B17A-7CED80B6A746}" name="area" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{415D5D1C-D23E-4619-BFAB-DDD89D2C30AD}" name="code" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6F3E31EC-6ECD-433E-B17A-7CED80B6A746}" name="area" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8BC4A4-8038-44A7-8C5E-6BCAD9AA1CD5}" name="price" displayName="price" ref="A1:C7" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D8BC4A4-8038-44A7-8C5E-6BCAD9AA1CD5}" name="price" displayName="price" ref="A1:C7" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:C7" xr:uid="{3D8BC4A4-8038-44A7-8C5E-6BCAD9AA1CD5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E5ABD10-72B9-4EB3-9AFA-04DAD730DD61}" name="from" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{8C00A95D-C552-4992-9088-F7B149628301}" name="to" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9AFFD300-D66C-4F3E-8DF0-4157490E27E9}" name="feePerMin" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{1E5ABD10-72B9-4EB3-9AFA-04DAD730DD61}" name="from" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8C00A95D-C552-4992-9088-F7B149628301}" name="to" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9AFFD300-D66C-4F3E-8DF0-4157490E27E9}" name="feePerMin" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61CA81F9-551F-48A6-8EA0-AB20AC131EAF}" name="plan" displayName="plan" ref="A1:F4" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:F4" xr:uid="{61CA81F9-551F-48A6-8EA0-AB20AC131EAF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{61CA81F9-551F-48A6-8EA0-AB20AC131EAF}" name="plan" displayName="plan" ref="A1:E4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:E4" xr:uid="{61CA81F9-551F-48A6-8EA0-AB20AC131EAF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{500F2145-2D13-4786-9DA6-FFF48022AC9D}" name="id" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{3FA3DC95-F60B-430D-A171-8A86B7B5C47B}" name="name_en" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C74F7FB8-FB53-435A-81CD-81F69855BEF0}" name="name_pt" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00259A9B-541D-46AF-B375-97F250BBAD81}" name="freeTime" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{611450D5-F061-46E5-BFCE-7FB52CDAB1B4}" name="premium" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{98408D6F-2823-4A36-97DC-74D7D6DA1601}" name="subscriptionFee" dataDxfId="3"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{500F2145-2D13-4786-9DA6-FFF48022AC9D}" name="id" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3FA3DC95-F60B-430D-A171-8A86B7B5C47B}" name="name_en" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C74F7FB8-FB53-435A-81CD-81F69855BEF0}" name="name_pt" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00259A9B-541D-46AF-B375-97F250BBAD81}" name="freeTime" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{611450D5-F061-46E5-BFCE-7FB52CDAB1B4}" name="premium" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -961,10 +924,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,11 +939,11 @@
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -991,40 +954,34 @@
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>11</v>
       </c>
@@ -1043,7 +1000,7 @@
         <v>1.9</v>
       </c>
       <c r="E2" s="4">
-        <f>IFERROR(dashboard[[#This Row],[costPer Min]]*dashboard[[#This Row],[minutes]], "")</f>
+        <f>IFERROR(dashboard[[#This Row],[costPerMin]]*dashboard[[#This Row],[minutes]], "")</f>
         <v>38</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1070,19 +1027,11 @@
         <v>0.1</v>
       </c>
       <c r="L2" s="12">
-        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPer Min]] * dashboard[[#This Row],[planPremium]], "")</f>
+        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPerMin]] * (1 + dashboard[[#This Row],[planPremium]]), "")</f>
         <v>0</v>
       </c>
-      <c r="M2" s="12">
-        <f>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[subscriptionFee])</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <f>IFERROR(dashboard[[#This Row],[planCallFee]]+dashboard[[#This Row],[planSubsFee]], "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>11</v>
       </c>
@@ -1101,7 +1050,7 @@
         <v>1.7</v>
       </c>
       <c r="E3" s="4">
-        <f>IFERROR(dashboard[[#This Row],[costPer Min]]*dashboard[[#This Row],[minutes]], "")</f>
+        <f>IFERROR(dashboard[[#This Row],[costPerMin]]*dashboard[[#This Row],[minutes]], "")</f>
         <v>136</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1128,19 +1077,11 @@
         <v>0.1</v>
       </c>
       <c r="L3" s="12">
-        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPer Min]] * dashboard[[#This Row],[planPremium]], "")</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="M3" s="12">
-        <f>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[subscriptionFee])</f>
-        <v>34</v>
-      </c>
-      <c r="N3" s="12">
-        <f>IFERROR(dashboard[[#This Row],[planCallFee]]+dashboard[[#This Row],[planSubsFee]], "")</f>
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPerMin]] * (1 + dashboard[[#This Row],[planPremium]]), "")</f>
+        <v>37.400000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>18</v>
       </c>
@@ -1159,7 +1100,7 @@
         <v>1.9</v>
       </c>
       <c r="E4" s="4">
-        <f>IFERROR(dashboard[[#This Row],[costPer Min]]*dashboard[[#This Row],[minutes]], "")</f>
+        <f>IFERROR(dashboard[[#This Row],[costPerMin]]*dashboard[[#This Row],[minutes]], "")</f>
         <v>380</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1186,19 +1127,11 @@
         <v>0.1</v>
       </c>
       <c r="L4" s="12">
-        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPer Min]] * dashboard[[#This Row],[planPremium]], "")</f>
-        <v>15.200000000000001</v>
-      </c>
-      <c r="M4" s="12">
-        <f>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[subscriptionFee])</f>
-        <v>152</v>
-      </c>
-      <c r="N4" s="12">
-        <f>IFERROR(dashboard[[#This Row],[planCallFee]]+dashboard[[#This Row],[planSubsFee]], "")</f>
-        <v>167.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPerMin]] * (1 + dashboard[[#This Row],[planPremium]]), "")</f>
+        <v>167.20000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>18</v>
       </c>
@@ -1217,7 +1150,7 @@
         <v/>
       </c>
       <c r="E5" s="4" t="str">
-        <f>IFERROR(dashboard[[#This Row],[costPer Min]]*dashboard[[#This Row],[minutes]], "")</f>
+        <f>IFERROR(dashboard[[#This Row],[costPerMin]]*dashboard[[#This Row],[minutes]], "")</f>
         <v/>
       </c>
       <c r="F5" s="5" t="s">
@@ -1244,15 +1177,7 @@
         <v>0.1</v>
       </c>
       <c r="L5" s="12" t="str">
-        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPer Min]] * dashboard[[#This Row],[planPremium]], "")</f>
-        <v/>
-      </c>
-      <c r="M5" s="12">
-        <f>_xlfn.XLOOKUP(dashboard[[#This Row],[planId]], plan[id], plan[subscriptionFee])</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f>IFERROR(dashboard[[#This Row],[planCallFee]]+dashboard[[#This Row],[planSubsFee]], "")</f>
+        <f>IFERROR(dashboard[[#This Row],[exceededFreeTime]] * dashboard[[#This Row],[costPerMin]] * (1 + dashboard[[#This Row],[planPremium]]), "")</f>
         <v/>
       </c>
     </row>
@@ -1337,7 +1262,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
@@ -1437,10 +1362,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,11 +1374,10 @@
     <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1464,16 +1388,13 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1489,11 +1410,8 @@
       <c r="E2" s="10">
         <v>0.1</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1509,11 +1427,8 @@
       <c r="E3" s="10">
         <v>0.1</v>
       </c>
-      <c r="F3" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1528,9 +1443,6 @@
       </c>
       <c r="E4" s="10">
         <v>0.1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
